--- a/models/table_4.xlsx
+++ b/models/table_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -106,22 +106,22 @@
     <t xml:space="preserve">PanelOLS       </t>
   </si>
   <si>
-    <t xml:space="preserve">1759           </t>
+    <t xml:space="preserve">1768           </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered      </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4659         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2280         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3561         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">378.55         </t>
+    <t xml:space="preserve">0.4595         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2535         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3491         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">370.59         </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000         </t>
@@ -130,181 +130,313 @@
     <t xml:space="preserve">0.0788***      </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0034)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0708         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0555)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1657***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0588)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1117*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0668)       </t>
+    <t xml:space="preserve">(0.0035)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0735         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0548)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1592**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0627)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1125         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0688)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3220***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1062)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4600         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2472         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3467         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">247.31         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0790***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0733         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0556)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1589**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0625)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1156*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0683)       </t>
   </si>
   <si>
     <t xml:space="preserve">0.3227***      </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.1049)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4662         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2242         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3545         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">252.43         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0790***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0703         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0564)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0586)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1140*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0664)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3237***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1053)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0099        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0116)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0086         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0127)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7327         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9357         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8249         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">678.73         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0747***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0013)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0477**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0192)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0344         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0265)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0364*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0205)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0873**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0350)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0116        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0111)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0040        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0068)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7122***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0590)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7555         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8172         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7883         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">669.15         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0734***      </t>
+    <t xml:space="preserve">(0.1063)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0136        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0133)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0093         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0123)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7298         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9358         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8237         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">671.84         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0749***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0014)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0478**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0189)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0322         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0267)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0372*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0214)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0867**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0337)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0133        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0113)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0033        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0066)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7121***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0573)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7531         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8244         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7858         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">663.44         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0739***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0019)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0034        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0226)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0117         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0326)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0046        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0227)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0255         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0363)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0057        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0099)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0017        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0092)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5887***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0520)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1915***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0377)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7441         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8862         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8090         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">632.38         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0016)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0131         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0206)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0415         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0293)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0218)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0466         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0347)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0084        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0107)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0051        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0090)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6419***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0542)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1150***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7490         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8564         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7982         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">649.08         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0738***      </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0018)       </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0034        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0230)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0152         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0321)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0213)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0269         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0372)       </t>
+    <t xml:space="preserve">0.0033         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0217)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0301         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0309)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0038         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0224)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0345         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0069        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0102)       </t>
   </si>
   <si>
     <t xml:space="preserve">-0.0038        </t>
@@ -313,142 +445,16 @@
     <t xml:space="preserve">(0.0093)       </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0024        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0095)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5905***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0536)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1879***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7462         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8850         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8115         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">636.58         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0736***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0015)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0139         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0208)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0438         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0290)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0135         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0206)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0482         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0358)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0067        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0105)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0058        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0092)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6456***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0562)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1108***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0264)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7512         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8529         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8009         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">653.66         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0017)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0039         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0220)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0331         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0305)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0044         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0210)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0361         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0050        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0098)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0046        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6174***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0546)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1519***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0315)       </t>
+    <t xml:space="preserve">0.6141***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0525)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1563***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0317)       </t>
   </si>
 </sst>
 </file>
@@ -938,13 +944,13 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
         <v>126</v>
@@ -961,13 +967,13 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
         <v>126</v>
@@ -984,13 +990,13 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
         <v>127</v>
@@ -1007,13 +1013,13 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>128</v>
@@ -1030,13 +1036,13 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>129</v>
@@ -1076,16 +1082,16 @@
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1099,16 +1105,16 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1122,16 +1128,16 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1145,16 +1151,16 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1165,19 +1171,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1188,19 +1194,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1211,19 +1217,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1234,19 +1240,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1257,19 +1263,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1280,19 +1286,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1303,19 +1309,19 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1332,19 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1349,19 +1355,19 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1372,19 +1378,19 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1398,16 +1404,16 @@
         <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1421,16 +1427,16 @@
         <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1447,7 +1453,7 @@
         <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
@@ -1470,7 +1476,7 @@
         <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
         <v>47</v>
@@ -1496,7 +1502,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
         <v>47</v>
@@ -1519,7 +1525,7 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>
@@ -1545,7 +1551,7 @@
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1568,7 +1574,7 @@
         <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
